--- a/raw_data/20200818_saline/20200818_Sensor1_Test_45.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_45.xlsx
@@ -1,643 +1,1059 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8545F3D1-7DF6-49F1-8137-F3E3B519B8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>39787.700879</v>
+        <v>39787.700879000004</v>
       </c>
       <c r="B2" s="1">
         <v>11.052139</v>
       </c>
       <c r="C2" s="1">
-        <v>903.227000</v>
+        <v>903.22699999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-183.482000</v>
+        <v>-183.482</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>39798.101452</v>
+        <v>39798.101452000003</v>
       </c>
       <c r="G2" s="1">
         <v>11.055028</v>
       </c>
       <c r="H2" s="1">
-        <v>921.566000</v>
+        <v>921.56600000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.019000</v>
+        <v>-161.01900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>39808.523919</v>
+        <v>39808.523918999999</v>
       </c>
       <c r="L2" s="1">
-        <v>11.057923</v>
+        <v>11.057923000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>944.337000</v>
+        <v>944.33699999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.719000</v>
+        <v>-116.71899999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>39819.330225</v>
+        <v>39819.330224999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>11.060925</v>
+        <v>11.060924999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>951.532000</v>
+        <v>951.53200000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>39829.829044</v>
+        <v>39829.829043999998</v>
       </c>
       <c r="V2" s="1">
         <v>11.063841</v>
       </c>
       <c r="W2" s="1">
-        <v>958.857000</v>
+        <v>958.85699999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.123500</v>
+        <v>-88.123500000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>39840.263381</v>
+        <v>39840.263380999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.066740</v>
+        <v>11.066739999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.936000</v>
+        <v>966.93600000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.169200</v>
+        <v>-77.169200000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>39850.803895</v>
+        <v>39850.803894999997</v>
       </c>
       <c r="AF2" s="1">
         <v>11.069668</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.921000</v>
+        <v>971.92100000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.066200</v>
+        <v>-75.066199999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>39861.570521</v>
+        <v>39861.570521000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.072658</v>
+        <v>11.072658000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.450000</v>
+        <v>979.45</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.743000</v>
+        <v>-79.742999999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>39872.113485</v>
+        <v>39872.113485000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.075587</v>
+        <v>11.075587000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.724000</v>
+        <v>987.72400000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.380000</v>
+        <v>-91.38</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>39882.790366</v>
+        <v>39882.790366000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>11.078553</v>
+        <v>11.078552999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.625000</v>
+        <v>997.625</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.054000</v>
+        <v>-109.054</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>39893.285711</v>
+        <v>39893.285710999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>11.081468</v>
+        <v>11.081467999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.762000</v>
+        <v>-124.762</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>39903.928902</v>
@@ -646,91 +1062,91 @@
         <v>11.084425</v>
       </c>
       <c r="BF2" s="1">
-        <v>1044.290000</v>
+        <v>1044.29</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.134000</v>
+        <v>-197.13399999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>39914.881523</v>
+        <v>39914.881522999996</v>
       </c>
       <c r="BJ2" s="1">
         <v>11.087467</v>
       </c>
       <c r="BK2" s="1">
-        <v>1110.690000</v>
+        <v>1110.69</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.970000</v>
+        <v>-314.97000000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>39926.422435</v>
       </c>
       <c r="BO2" s="1">
-        <v>11.090673</v>
+        <v>11.090673000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-501.233000</v>
+        <v>-501.233</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>39937.611684</v>
+        <v>39937.611684000003</v>
       </c>
       <c r="BT2" s="1">
         <v>11.093781</v>
       </c>
       <c r="BU2" s="1">
-        <v>1341.370000</v>
+        <v>1341.37</v>
       </c>
       <c r="BV2" s="1">
-        <v>-705.507000</v>
+        <v>-705.50699999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>39949.440773</v>
+        <v>39949.440773000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>11.097067</v>
+        <v>11.097066999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1478.380000</v>
+        <v>1478.38</v>
       </c>
       <c r="CA2" s="1">
-        <v>-924.129000</v>
+        <v>-924.12900000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>39960.341351</v>
+        <v>39960.341351000003</v>
       </c>
       <c r="CD2" s="1">
         <v>11.100095</v>
       </c>
       <c r="CE2" s="1">
-        <v>1839.130000</v>
+        <v>1839.13</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1444.280000</v>
+        <v>-1444.28</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>39788.069399</v>
       </c>
@@ -738,73 +1154,73 @@
         <v>11.052241</v>
       </c>
       <c r="C3" s="1">
-        <v>902.865000</v>
+        <v>902.86500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-184.155000</v>
+        <v>-184.155</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>39798.798829</v>
+        <v>39798.798828999999</v>
       </c>
       <c r="G3" s="1">
-        <v>11.055222</v>
+        <v>11.055222000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>921.687000</v>
+        <v>921.68700000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-161.369000</v>
+        <v>-161.369</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>39809.243582</v>
+        <v>39809.243582000003</v>
       </c>
       <c r="L3" s="1">
         <v>11.058123</v>
       </c>
       <c r="M3" s="1">
-        <v>944.250000</v>
+        <v>944.25</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.960000</v>
+        <v>-116.96</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>39819.684865</v>
+        <v>39819.684865000003</v>
       </c>
       <c r="Q3" s="1">
         <v>11.061024</v>
       </c>
       <c r="R3" s="1">
-        <v>951.545000</v>
+        <v>951.54499999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.091000</v>
+        <v>-102.09099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>39830.184179</v>
+        <v>39830.184179000003</v>
       </c>
       <c r="V3" s="1">
-        <v>11.063940</v>
+        <v>11.063940000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>958.848000</v>
+        <v>958.84799999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.152300</v>
+        <v>-88.152299999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>39840.612104</v>
@@ -813,13 +1229,13 @@
         <v>11.066837</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.883000</v>
+        <v>966.88300000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.204400</v>
+        <v>-77.204400000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>39851.165448</v>
@@ -828,43 +1244,43 @@
         <v>11.069768</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.886000</v>
+        <v>971.88599999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.081700</v>
+        <v>-75.081699999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>39862.263638</v>
+        <v>39862.263637999997</v>
       </c>
       <c r="AK3" s="1">
         <v>11.072851</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.437000</v>
+        <v>979.43700000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.764800</v>
+        <v>-79.764799999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>39872.223100</v>
+        <v>39872.223100000003</v>
       </c>
       <c r="AP3" s="1">
         <v>11.075618</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.731000</v>
+        <v>987.73099999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.366000</v>
+        <v>-91.366</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>39882.899522</v>
@@ -873,285 +1289,285 @@
         <v>11.078583</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.613000</v>
+        <v>997.61300000000006</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.049000</v>
+        <v>-109.04900000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>39893.647790</v>
+        <v>39893.647790000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.081569</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.880000</v>
+        <v>1005.88</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.740000</v>
+        <v>-124.74</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>39904.293247</v>
+        <v>39904.293247000001</v>
       </c>
       <c r="BE3" s="1">
         <v>11.084526</v>
       </c>
       <c r="BF3" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.133000</v>
+        <v>-197.13300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>39915.281298</v>
+        <v>39915.281298000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.087578</v>
+        <v>11.087578000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1110.730000</v>
+        <v>1110.73</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.995000</v>
+        <v>-314.995</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>39926.856475</v>
+        <v>39926.856475000001</v>
       </c>
       <c r="BO3" s="1">
         <v>11.090793</v>
       </c>
       <c r="BP3" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-501.232000</v>
+        <v>-501.23200000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>39938.071476</v>
+        <v>39938.071475999997</v>
       </c>
       <c r="BT3" s="1">
         <v>11.093909</v>
       </c>
       <c r="BU3" s="1">
-        <v>1341.400000</v>
+        <v>1341.4</v>
       </c>
       <c r="BV3" s="1">
-        <v>-705.604000</v>
+        <v>-705.60400000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>39949.599529</v>
+        <v>39949.599528999999</v>
       </c>
       <c r="BY3" s="1">
         <v>11.097111</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1478.380000</v>
+        <v>1478.38</v>
       </c>
       <c r="CA3" s="1">
-        <v>-924.096000</v>
+        <v>-924.096</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>39960.615677</v>
+        <v>39960.615677000002</v>
       </c>
       <c r="CD3" s="1">
         <v>11.100171</v>
       </c>
       <c r="CE3" s="1">
-        <v>1839.500000</v>
+        <v>1839.5</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1442.970000</v>
+        <v>-1442.97</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>39788.744426</v>
+        <v>39788.744425999997</v>
       </c>
       <c r="B4" s="1">
         <v>11.052429</v>
       </c>
       <c r="C4" s="1">
-        <v>902.250000</v>
+        <v>902.25</v>
       </c>
       <c r="D4" s="1">
-        <v>-185.252000</v>
+        <v>-185.25200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>39799.133133</v>
+        <v>39799.133133000003</v>
       </c>
       <c r="G4" s="1">
         <v>11.055315</v>
       </c>
       <c r="H4" s="1">
-        <v>921.701000</v>
+        <v>921.70100000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-161.036000</v>
+        <v>-161.036</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>39809.590818</v>
+        <v>39809.590817999997</v>
       </c>
       <c r="L4" s="1">
-        <v>11.058220</v>
+        <v>11.05822</v>
       </c>
       <c r="M4" s="1">
-        <v>944.353000</v>
+        <v>944.35299999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.623000</v>
+        <v>-116.623</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>39820.034048</v>
+        <v>39820.034048000001</v>
       </c>
       <c r="Q4" s="1">
         <v>11.061121</v>
       </c>
       <c r="R4" s="1">
-        <v>951.549000</v>
+        <v>951.54899999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.122000</v>
+        <v>-102.122</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>39830.531875</v>
+        <v>39830.531875000001</v>
       </c>
       <c r="V4" s="1">
-        <v>11.064037</v>
+        <v>11.064037000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>958.909000</v>
+        <v>958.90899999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.157400</v>
+        <v>-88.157399999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>39841.262821</v>
+        <v>39841.262820999997</v>
       </c>
       <c r="AA4" s="1">
         <v>11.067017</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.849000</v>
+        <v>966.84900000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.081400</v>
+        <v>-77.081400000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>39851.817191</v>
+        <v>39851.817191000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.069949</v>
+        <v>11.069948999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.899000</v>
+        <v>971.899</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.041200</v>
+        <v>-75.041200000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>39862.654808</v>
+        <v>39862.654807999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>11.072960</v>
+        <v>11.07296</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.441000</v>
+        <v>979.44100000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.775400</v>
+        <v>-79.775400000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>39872.579458</v>
       </c>
       <c r="AP4" s="1">
-        <v>11.075717</v>
+        <v>11.075716999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.723000</v>
+        <v>987.72299999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.381200</v>
+        <v>-91.381200000000007</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>39883.248173</v>
       </c>
       <c r="AU4" s="1">
-        <v>11.078680</v>
+        <v>11.07868</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.626000</v>
+        <v>997.62599999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.057000</v>
+        <v>-109.057</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>39894.006894</v>
+        <v>39894.006893999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>11.081669</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.752000</v>
+        <v>-124.752</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>39904.654016</v>
@@ -1160,467 +1576,467 @@
         <v>11.084626</v>
       </c>
       <c r="BF4" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.120000</v>
+        <v>-197.12</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>39915.704897</v>
+        <v>39915.704897000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.087696</v>
+        <v>11.087695999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1110.720000</v>
+        <v>1110.72</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.014000</v>
+        <v>-315.01400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>39927.274562</v>
+        <v>39927.274561999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.090910</v>
+        <v>11.090909999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.261000</v>
+        <v>-501.26100000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>39938.489107</v>
+        <v>39938.489107000001</v>
       </c>
       <c r="BT4" s="1">
         <v>11.094025</v>
       </c>
       <c r="BU4" s="1">
-        <v>1341.410000</v>
+        <v>1341.41</v>
       </c>
       <c r="BV4" s="1">
-        <v>-705.574000</v>
+        <v>-705.57399999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>39950.023076</v>
+        <v>39950.023075999998</v>
       </c>
       <c r="BY4" s="1">
         <v>11.097229</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1478.350000</v>
+        <v>1478.35</v>
       </c>
       <c r="CA4" s="1">
-        <v>-924.210000</v>
+        <v>-924.21</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>39961.131510</v>
+        <v>39961.131509999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.100314</v>
+        <v>11.100313999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1837.960000</v>
+        <v>1837.96</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1443.190000</v>
+        <v>-1443.19</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>39789.094601</v>
+        <v>39789.094600999997</v>
       </c>
       <c r="B5" s="1">
         <v>11.052526</v>
       </c>
       <c r="C5" s="1">
-        <v>902.132000</v>
+        <v>902.13199999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-186.257000</v>
+        <v>-186.25700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>39799.477385</v>
+        <v>39799.477384999998</v>
       </c>
       <c r="G5" s="1">
-        <v>11.055410</v>
+        <v>11.05541</v>
       </c>
       <c r="H5" s="1">
-        <v>922.070000</v>
+        <v>922.07</v>
       </c>
       <c r="I5" s="1">
-        <v>-161.289000</v>
+        <v>-161.28899999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>39809.938974</v>
+        <v>39809.938973999997</v>
       </c>
       <c r="L5" s="1">
         <v>11.058316</v>
       </c>
       <c r="M5" s="1">
-        <v>944.353000</v>
+        <v>944.35299999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.006000</v>
+        <v>-117.006</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>39820.680335</v>
+        <v>39820.680334999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>11.061300</v>
+        <v>11.061299999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>951.501000</v>
+        <v>951.50099999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.070000</v>
+        <v>-102.07</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>39831.195521</v>
+        <v>39831.195521000001</v>
       </c>
       <c r="V5" s="1">
         <v>11.064221</v>
       </c>
       <c r="W5" s="1">
-        <v>958.815000</v>
+        <v>958.81500000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.095500</v>
+        <v>-88.095500000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>39841.658163</v>
       </c>
       <c r="AA5" s="1">
-        <v>11.067127</v>
+        <v>11.067126999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.913000</v>
+        <v>966.91300000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.115700</v>
+        <v>-77.115700000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>39852.371717</v>
+        <v>39852.371717000002</v>
       </c>
       <c r="AF5" s="1">
         <v>11.070103</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.884000</v>
+        <v>971.88400000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.050100</v>
+        <v>-75.0501</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>39863.002511</v>
+        <v>39863.002510999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>11.073056</v>
+        <v>11.073055999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.429000</v>
+        <v>979.42899999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.757300</v>
+        <v>-79.757300000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>39872.939323</v>
+        <v>39872.939322999999</v>
       </c>
       <c r="AP5" s="1">
         <v>11.075816</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.749000</v>
+        <v>987.74900000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.377900</v>
+        <v>-91.377899999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>39883.611996</v>
       </c>
       <c r="AU5" s="1">
-        <v>11.078781</v>
+        <v>11.078780999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.613000</v>
+        <v>997.61300000000006</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.054000</v>
+        <v>-109.054</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>39894.427999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>11.081786</v>
+        <v>11.081785999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.870000</v>
+        <v>1005.87</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.771000</v>
+        <v>-124.771</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>39905.070655</v>
+        <v>39905.070655000003</v>
       </c>
       <c r="BE5" s="1">
         <v>11.084742</v>
       </c>
       <c r="BF5" s="1">
-        <v>1044.280000</v>
+        <v>1044.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.147000</v>
+        <v>-197.14699999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>39916.030288</v>
+        <v>39916.030288000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.087786</v>
+        <v>11.087785999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1110.700000</v>
+        <v>1110.7</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.011000</v>
+        <v>-315.01100000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>39927.672353</v>
+        <v>39927.672353000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>11.091020</v>
+        <v>11.09102</v>
       </c>
       <c r="BP5" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.222000</v>
+        <v>-501.22199999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>39938.897842</v>
+        <v>39938.897841999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>11.094138</v>
+        <v>11.094137999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1341.390000</v>
+        <v>1341.39</v>
       </c>
       <c r="BV5" s="1">
-        <v>-705.566000</v>
+        <v>-705.56600000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>39950.444180</v>
+        <v>39950.444179999999</v>
       </c>
       <c r="BY5" s="1">
         <v>11.097346</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1478.400000</v>
+        <v>1478.4</v>
       </c>
       <c r="CA5" s="1">
-        <v>-924.143000</v>
+        <v>-924.14300000000003</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>39961.677078</v>
+        <v>39961.677078000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>11.100466</v>
+        <v>11.100466000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1839.540000</v>
+        <v>1839.54</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1443.610000</v>
+        <v>-1443.61</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>39789.438825</v>
+        <v>39789.438824999997</v>
       </c>
       <c r="B6" s="1">
         <v>11.052622</v>
       </c>
       <c r="C6" s="1">
-        <v>902.788000</v>
+        <v>902.78800000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-187.293000</v>
+        <v>-187.29300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>39800.132570</v>
+        <v>39800.132570000002</v>
       </c>
       <c r="G6" s="1">
-        <v>11.055592</v>
+        <v>11.055592000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>921.880000</v>
+        <v>921.88</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.139000</v>
+        <v>-161.13900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>39810.593692</v>
+        <v>39810.593692000002</v>
       </c>
       <c r="L6" s="1">
         <v>11.058498</v>
       </c>
       <c r="M6" s="1">
-        <v>944.261000</v>
+        <v>944.26099999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.941000</v>
+        <v>-116.941</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>39821.066718</v>
+        <v>39821.066718000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.061407</v>
+        <v>11.061407000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>951.501000</v>
+        <v>951.50099999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.068000</v>
+        <v>-102.068</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>39831.559584</v>
+        <v>39831.559584000002</v>
       </c>
       <c r="V6" s="1">
-        <v>11.064322</v>
+        <v>11.064322000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>958.889000</v>
+        <v>958.88900000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.206400</v>
+        <v>-88.206400000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>39842.006818</v>
+        <v>39842.006818000002</v>
       </c>
       <c r="AA6" s="1">
         <v>11.067224</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.929000</v>
+        <v>966.92899999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.251800</v>
+        <v>-77.251800000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>39852.722885</v>
+        <v>39852.722885000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.070201</v>
+        <v>11.070201000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.897000</v>
+        <v>971.89700000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.089200</v>
+        <v>-75.089200000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>39863.351654</v>
+        <v>39863.351653999998</v>
       </c>
       <c r="AK6" s="1">
         <v>11.073153</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.488000</v>
+        <v>979.48800000000006</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.769600</v>
+        <v>-79.769599999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>39873.361417</v>
@@ -1629,482 +2045,482 @@
         <v>11.075934</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.748000</v>
+        <v>987.74800000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.391300</v>
+        <v>-91.391300000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>39884.040817</v>
+        <v>39884.040817000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.078900</v>
+        <v>11.078900000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.614000</v>
+        <v>997.61400000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.051000</v>
+        <v>-109.051</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>39894.725101</v>
+        <v>39894.725101000004</v>
       </c>
       <c r="AZ6" s="1">
         <v>11.081868</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.850000</v>
+        <v>1005.85</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.753000</v>
+        <v>-124.753</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>39905.376689</v>
+        <v>39905.376688999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>11.084827</v>
+        <v>11.084827000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.132000</v>
+        <v>-197.13200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>39916.405728</v>
+        <v>39916.405727999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.087890</v>
+        <v>11.08789</v>
       </c>
       <c r="BK6" s="1">
-        <v>1110.700000</v>
+        <v>1110.7</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.977000</v>
+        <v>-314.97699999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>39928.095937</v>
+        <v>39928.095936999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.091138</v>
+        <v>11.091138000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.281000</v>
+        <v>-501.28100000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>39939.317426</v>
+        <v>39939.317426000001</v>
       </c>
       <c r="BT6" s="1">
         <v>11.094255</v>
       </c>
       <c r="BU6" s="1">
-        <v>1341.340000</v>
+        <v>1341.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-705.626000</v>
+        <v>-705.62599999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>39950.898523</v>
+        <v>39950.898523000003</v>
       </c>
       <c r="BY6" s="1">
         <v>11.097472</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1478.330000</v>
+        <v>1478.33</v>
       </c>
       <c r="CA6" s="1">
-        <v>-924.216000</v>
+        <v>-924.21600000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>39962.215769</v>
+        <v>39962.215769000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.100615</v>
+        <v>11.100614999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1838.000000</v>
+        <v>1838</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1442.580000</v>
+        <v>-1442.58</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>39790.094535</v>
+        <v>39790.094534999997</v>
       </c>
       <c r="B7" s="1">
         <v>11.052804</v>
       </c>
       <c r="C7" s="1">
-        <v>904.357000</v>
+        <v>904.35699999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-188.936000</v>
+        <v>-188.93600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>39800.512533</v>
+        <v>39800.512533000001</v>
       </c>
       <c r="G7" s="1">
         <v>11.055698</v>
       </c>
       <c r="H7" s="1">
-        <v>921.881000</v>
+        <v>921.88099999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-161.534000</v>
+        <v>-161.53399999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>39810.975612</v>
+        <v>39810.975612000002</v>
       </c>
       <c r="L7" s="1">
-        <v>11.058604</v>
+        <v>11.058604000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>944.298000</v>
+        <v>944.298</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.927000</v>
+        <v>-116.92700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>39821.424334</v>
+        <v>39821.424334000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>11.061507</v>
+        <v>11.061507000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>951.538000</v>
+        <v>951.53800000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.044000</v>
+        <v>-102.044</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>39831.903808</v>
+        <v>39831.903808000003</v>
       </c>
       <c r="V7" s="1">
         <v>11.064418</v>
       </c>
       <c r="W7" s="1">
-        <v>958.858000</v>
+        <v>958.85799999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.181300</v>
+        <v>-88.181299999999993</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>39842.357490</v>
+        <v>39842.357490000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.067322</v>
+        <v>11.067322000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.001000</v>
+        <v>967.00099999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.150600</v>
+        <v>-77.150599999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>39852.890533</v>
+        <v>39852.890532999998</v>
       </c>
       <c r="AF7" s="1">
         <v>11.070247</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.848000</v>
+        <v>971.84799999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.025500</v>
+        <v>-75.025499999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>39863.772294</v>
+        <v>39863.772294000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.073270</v>
+        <v>11.073270000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.481000</v>
+        <v>979.48099999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.753400</v>
+        <v>-79.753399999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>39873.658554</v>
+        <v>39873.658554000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.076016</v>
+        <v>11.076015999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.738000</v>
+        <v>987.73800000000006</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.377600</v>
+        <v>-91.377600000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>39884.343834</v>
+        <v>39884.343833999999</v>
       </c>
       <c r="AU7" s="1">
         <v>11.078984</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.616000</v>
+        <v>997.61599999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.056000</v>
+        <v>-109.056</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>39895.085198</v>
+        <v>39895.085198000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>11.081968</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.880000</v>
+        <v>1005.88</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.785000</v>
+        <v>-124.785</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>39905.735332</v>
+        <v>39905.735331999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>11.084926</v>
+        <v>11.084925999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.128000</v>
+        <v>-197.12799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>39916.803520</v>
+        <v>39916.803520000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>11.088001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1110.720000</v>
+        <v>1110.72</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.017000</v>
+        <v>-315.017</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>39928.910368</v>
+        <v>39928.910367999997</v>
       </c>
       <c r="BO7" s="1">
         <v>11.091364</v>
       </c>
       <c r="BP7" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.279000</v>
+        <v>-501.279</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>39939.737041</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.094371</v>
+        <v>11.094371000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1341.360000</v>
+        <v>1341.36</v>
       </c>
       <c r="BV7" s="1">
-        <v>-705.593000</v>
+        <v>-705.59299999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>39951.316147</v>
+        <v>39951.316146999998</v>
       </c>
       <c r="BY7" s="1">
         <v>11.097588</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1478.320000</v>
+        <v>1478.32</v>
       </c>
       <c r="CA7" s="1">
-        <v>-924.254000</v>
+        <v>-924.25400000000002</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>39962.755387</v>
+        <v>39962.755386999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.100765</v>
+        <v>11.100765000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1838.710000</v>
+        <v>1838.71</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1444.240000</v>
+        <v>-1444.24</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>39790.468023</v>
+        <v>39790.468023000001</v>
       </c>
       <c r="B8" s="1">
         <v>11.052908</v>
       </c>
       <c r="C8" s="1">
-        <v>904.506000</v>
+        <v>904.50599999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-189.040000</v>
+        <v>-189.04</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>39800.857225</v>
       </c>
       <c r="G8" s="1">
-        <v>11.055794</v>
+        <v>11.055794000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>921.824000</v>
+        <v>921.82399999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.238000</v>
+        <v>-161.238</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>39811.319837</v>
+        <v>39811.319837000003</v>
       </c>
       <c r="L8" s="1">
-        <v>11.058700</v>
+        <v>11.0587</v>
       </c>
       <c r="M8" s="1">
-        <v>944.319000</v>
+        <v>944.31899999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.934000</v>
+        <v>-116.934</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>39821.774509</v>
+        <v>39821.774509000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>11.061604</v>
+        <v>11.061604000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>951.546000</v>
+        <v>951.54600000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.063000</v>
+        <v>-102.063</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>39832.248031</v>
+        <v>39832.248031000003</v>
       </c>
       <c r="V8" s="1">
         <v>11.064513</v>
       </c>
       <c r="W8" s="1">
-        <v>958.882000</v>
+        <v>958.88199999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.176200</v>
+        <v>-88.176199999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>39842.774129</v>
+        <v>39842.774128999998</v>
       </c>
       <c r="AA8" s="1">
         <v>11.067437</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.970000</v>
+        <v>966.97</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.152200</v>
+        <v>-77.152199999999993</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>39853.574515</v>
@@ -2113,133 +2529,133 @@
         <v>11.070437</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.830000</v>
+        <v>971.83</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.009900</v>
+        <v>-75.009900000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>39864.047543</v>
+        <v>39864.047543000001</v>
       </c>
       <c r="AK8" s="1">
         <v>11.073347</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.437000</v>
+        <v>979.43700000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.749000</v>
+        <v>-79.748999999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>39874.020105</v>
+        <v>39874.020105000003</v>
       </c>
       <c r="AP8" s="1">
         <v>11.076117</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.719000</v>
+        <v>987.71900000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.398700</v>
+        <v>-91.398700000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>39884.705915</v>
+        <v>39884.705914999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.079085</v>
+        <v>11.079084999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.624000</v>
+        <v>997.62400000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.059000</v>
+        <v>-109.059</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>39895.438882</v>
+        <v>39895.438882000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>11.082066</v>
+        <v>11.082065999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.860000</v>
+        <v>1005.86</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.750000</v>
+        <v>-124.75</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>39906.096879</v>
+        <v>39906.096878999997</v>
       </c>
       <c r="BE8" s="1">
         <v>11.085027</v>
       </c>
       <c r="BF8" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.127000</v>
+        <v>-197.12700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>39917.550991</v>
+        <v>39917.550990999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.088209</v>
+        <v>11.088209000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1110.700000</v>
+        <v>1110.7</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.024000</v>
+        <v>-315.024</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>39929.328001</v>
+        <v>39929.328001000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.091480</v>
+        <v>11.091480000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1219.020000</v>
+        <v>1219.02</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.292000</v>
+        <v>-501.29199999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>39940.148721</v>
+        <v>39940.148720999998</v>
       </c>
       <c r="BT8" s="1">
         <v>11.094486</v>
       </c>
       <c r="BU8" s="1">
-        <v>1341.330000</v>
+        <v>1341.33</v>
       </c>
       <c r="BV8" s="1">
-        <v>-705.652000</v>
+        <v>-705.65200000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>39951.764529</v>
@@ -2248,165 +2664,165 @@
         <v>11.097712</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1478.450000</v>
+        <v>1478.45</v>
       </c>
       <c r="CA8" s="1">
-        <v>-924.277000</v>
+        <v>-924.27700000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>39963.296020</v>
+        <v>39963.296020000002</v>
       </c>
       <c r="CD8" s="1">
         <v>11.100916</v>
       </c>
       <c r="CE8" s="1">
-        <v>1839.520000</v>
+        <v>1839.52</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1442.800000</v>
+        <v>-1442.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>39790.810263</v>
+        <v>39790.810262999999</v>
       </c>
       <c r="B9" s="1">
         <v>11.053003</v>
       </c>
       <c r="C9" s="1">
-        <v>904.604000</v>
+        <v>904.60400000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-189.152000</v>
+        <v>-189.15199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>39801.202938</v>
+        <v>39801.202938000002</v>
       </c>
       <c r="G9" s="1">
-        <v>11.055890</v>
+        <v>11.05589</v>
       </c>
       <c r="H9" s="1">
-        <v>922.029000</v>
+        <v>922.029</v>
       </c>
       <c r="I9" s="1">
-        <v>-161.494000</v>
+        <v>-161.494</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>39811.665052</v>
+        <v>39811.665051999997</v>
       </c>
       <c r="L9" s="1">
-        <v>11.058796</v>
+        <v>11.058795999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>944.304000</v>
+        <v>944.30399999999997</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.988000</v>
+        <v>-116.988</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>39822.201565</v>
+        <v>39822.201565000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>11.061723</v>
+        <v>11.061723000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>951.554000</v>
+        <v>951.55399999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.096000</v>
+        <v>-102.096</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>39832.692447</v>
+        <v>39832.692447000001</v>
       </c>
       <c r="V9" s="1">
-        <v>11.064637</v>
+        <v>11.064636999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>958.907000</v>
+        <v>958.90700000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.174900</v>
+        <v>-88.174899999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>39843.053875</v>
+        <v>39843.053874999998</v>
       </c>
       <c r="AA9" s="1">
         <v>11.067515</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.867000</v>
+        <v>966.86699999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.116000</v>
+        <v>-77.116</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>39853.922211</v>
+        <v>39853.922210999997</v>
       </c>
       <c r="AF9" s="1">
         <v>11.070534</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.895000</v>
+        <v>971.89499999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.025400</v>
+        <v>-75.025400000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>39864.398709</v>
+        <v>39864.398709000001</v>
       </c>
       <c r="AK9" s="1">
         <v>11.073444</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.483000</v>
+        <v>979.48299999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.779000</v>
+        <v>-79.778999999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>39874.379323</v>
+        <v>39874.379323000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>11.076216</v>
+        <v>11.076216000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.733000</v>
+        <v>987.73299999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.359000</v>
+        <v>-91.358999999999995</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>39885.070474</v>
@@ -2415,270 +2831,270 @@
         <v>11.079186</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.598000</v>
+        <v>997.59799999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.042000</v>
+        <v>-109.042</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>39896.158539</v>
+        <v>39896.158538999996</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11.082266</v>
+        <v>11.082266000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.850000</v>
+        <v>1005.85</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.763000</v>
+        <v>-124.76300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>39906.819551</v>
+        <v>39906.819551000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.085228</v>
+        <v>11.085228000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.114000</v>
+        <v>-197.114</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>39917.956224</v>
+        <v>39917.956224000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>11.088321</v>
+        <v>11.088321000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1110.680000</v>
+        <v>1110.68</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.035000</v>
+        <v>-315.03500000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>39929.725295</v>
+        <v>39929.725294999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.091590</v>
+        <v>11.09159</v>
       </c>
       <c r="BP9" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.272000</v>
+        <v>-501.27199999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>39940.565392</v>
+        <v>39940.565391999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.094601</v>
+        <v>11.094601000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1341.310000</v>
+        <v>1341.31</v>
       </c>
       <c r="BV9" s="1">
-        <v>-705.632000</v>
+        <v>-705.63199999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>39952.497617</v>
+        <v>39952.497617000001</v>
       </c>
       <c r="BY9" s="1">
         <v>11.097916</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1478.360000</v>
+        <v>1478.36</v>
       </c>
       <c r="CA9" s="1">
-        <v>-924.209000</v>
+        <v>-924.20899999999995</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>39964.131808</v>
+        <v>39964.131807999998</v>
       </c>
       <c r="CD9" s="1">
         <v>11.101148</v>
       </c>
       <c r="CE9" s="1">
-        <v>1838.690000</v>
+        <v>1838.69</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1444.360000</v>
+        <v>-1444.36</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>39791.157990</v>
+        <v>39791.15799</v>
       </c>
       <c r="B10" s="1">
         <v>11.053099</v>
       </c>
       <c r="C10" s="1">
-        <v>904.785000</v>
+        <v>904.78499999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-189.232000</v>
+        <v>-189.232</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>39801.624537</v>
+        <v>39801.624537000003</v>
       </c>
       <c r="G10" s="1">
-        <v>11.056007</v>
+        <v>11.056006999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>921.450000</v>
+        <v>921.45</v>
       </c>
       <c r="I10" s="1">
-        <v>-161.443000</v>
+        <v>-161.44300000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>39812.080698</v>
+        <v>39812.080697999998</v>
       </c>
       <c r="L10" s="1">
         <v>11.058911</v>
       </c>
       <c r="M10" s="1">
-        <v>944.491000</v>
+        <v>944.49099999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.956000</v>
+        <v>-116.956</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>39822.480846</v>
+        <v>39822.480845999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.061800</v>
+        <v>11.0618</v>
       </c>
       <c r="R10" s="1">
-        <v>951.522000</v>
+        <v>951.52200000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.093000</v>
+        <v>-102.093</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>39833.017823</v>
+        <v>39833.017823000002</v>
       </c>
       <c r="V10" s="1">
         <v>11.064727</v>
       </c>
       <c r="W10" s="1">
-        <v>958.930000</v>
+        <v>958.93</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.140800</v>
+        <v>-88.140799999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>39843.404577</v>
+        <v>39843.404577000001</v>
       </c>
       <c r="AA10" s="1">
         <v>11.067612</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.924000</v>
+        <v>966.92399999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.212800</v>
+        <v>-77.212800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>39854.262994</v>
+        <v>39854.262993999997</v>
       </c>
       <c r="AF10" s="1">
         <v>11.070629</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.841000</v>
+        <v>971.84100000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.992200</v>
+        <v>-74.992199999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>39864.747924</v>
+        <v>39864.747924000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.073541</v>
+        <v>11.073541000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.465000</v>
+        <v>979.46500000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.760800</v>
+        <v>-79.760800000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>39875.101415</v>
+        <v>39875.101414999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.076417</v>
+        <v>11.076416999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.734000</v>
+        <v>987.73400000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.376800</v>
+        <v>-91.376800000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>39885.800617</v>
+        <v>39885.800617000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>11.079389</v>
+        <v>11.079389000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.608000</v>
+        <v>997.60799999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.040000</v>
+        <v>-109.04</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>39896.518634</v>
@@ -2687,135 +3103,135 @@
         <v>11.082366</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.860000</v>
+        <v>1005.86</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.754000</v>
+        <v>-124.754</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>39907.548668</v>
+        <v>39907.548668000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.085430</v>
+        <v>11.085430000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1044.280000</v>
+        <v>1044.28</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.126000</v>
+        <v>-197.126</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>39918.331234</v>
+        <v>39918.331233999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>11.088425</v>
+        <v>11.088425000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1110.710000</v>
+        <v>1110.71</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.009000</v>
+        <v>-315.00900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>39930.461854</v>
+        <v>39930.461854000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.091795</v>
+        <v>11.091794999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.298000</v>
+        <v>-501.298</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>39941.300964</v>
+        <v>39941.300964000002</v>
       </c>
       <c r="BT10" s="1">
         <v>11.094806</v>
       </c>
       <c r="BU10" s="1">
-        <v>1341.330000</v>
+        <v>1341.33</v>
       </c>
       <c r="BV10" s="1">
-        <v>-705.669000</v>
+        <v>-705.66899999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>39952.609218</v>
+        <v>39952.609217999998</v>
       </c>
       <c r="BY10" s="1">
         <v>11.097947</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1478.290000</v>
+        <v>1478.29</v>
       </c>
       <c r="CA10" s="1">
-        <v>-924.273000</v>
+        <v>-924.27300000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>39964.375354</v>
+        <v>39964.375354000003</v>
       </c>
       <c r="CD10" s="1">
         <v>11.101215</v>
       </c>
       <c r="CE10" s="1">
-        <v>1838.450000</v>
+        <v>1838.45</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1444.050000</v>
+        <v>-1444.05</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>39791.586790</v>
+        <v>39791.586790000001</v>
       </c>
       <c r="B11" s="1">
         <v>11.053219</v>
       </c>
       <c r="C11" s="1">
-        <v>905.051000</v>
+        <v>905.05100000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-189.145000</v>
+        <v>-189.14500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>39801.899354</v>
+        <v>39801.899354000001</v>
       </c>
       <c r="G11" s="1">
-        <v>11.056083</v>
+        <v>11.056082999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>921.669000</v>
+        <v>921.66899999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.638000</v>
+        <v>-161.63800000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>39812.378826</v>
@@ -2824,208 +3240,208 @@
         <v>11.058994</v>
       </c>
       <c r="M11" s="1">
-        <v>944.345000</v>
+        <v>944.34500000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.032000</v>
+        <v>-117.032</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>39822.827549</v>
+        <v>39822.827549000001</v>
       </c>
       <c r="Q11" s="1">
         <v>11.061897</v>
       </c>
       <c r="R11" s="1">
-        <v>951.481000</v>
+        <v>951.48099999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.102000</v>
+        <v>-102.102</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>39833.305998</v>
+        <v>39833.305998000003</v>
       </c>
       <c r="V11" s="1">
         <v>11.064807</v>
       </c>
       <c r="W11" s="1">
-        <v>958.851000</v>
+        <v>958.851</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.205100</v>
+        <v>-88.205100000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>39843.753763</v>
+        <v>39843.753763000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>11.067709</v>
+        <v>11.067709000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.839000</v>
+        <v>966.83900000000006</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.160700</v>
+        <v>-77.160700000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>39854.949951</v>
+        <v>39854.949951000002</v>
       </c>
       <c r="AF11" s="1">
         <v>11.070819</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.849000</v>
+        <v>971.84900000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.043100</v>
+        <v>-75.043099999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>39865.444772</v>
+        <v>39865.444772000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>11.073735</v>
+        <v>11.073734999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.477000</v>
+        <v>979.47699999999998</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.781200</v>
+        <v>-79.781199999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>39875.488760</v>
+        <v>39875.48876</v>
       </c>
       <c r="AP11" s="1">
         <v>11.076525</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.732000</v>
+        <v>987.73199999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.384100</v>
+        <v>-91.384100000000004</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>39886.163160</v>
+        <v>39886.163159999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.079490</v>
+        <v>11.07949</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.608000</v>
+        <v>997.60799999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.054000</v>
+        <v>-109.054</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>39896.877738</v>
+        <v>39896.877738000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>11.082466</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.850000</v>
+        <v>1005.85</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.754000</v>
+        <v>-124.754</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>39908.247068</v>
+        <v>39908.247067999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>11.085624</v>
+        <v>11.085623999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.135000</v>
+        <v>-197.13499999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>39919.027085</v>
+        <v>39919.027085000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>11.088619</v>
       </c>
       <c r="BK11" s="1">
-        <v>1110.710000</v>
+        <v>1110.71</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.035000</v>
+        <v>-315.03500000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>39930.973229</v>
+        <v>39930.973229000003</v>
       </c>
       <c r="BO11" s="1">
         <v>11.091937</v>
       </c>
       <c r="BP11" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.299000</v>
+        <v>-501.29899999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>39941.831151</v>
+        <v>39941.831150999998</v>
       </c>
       <c r="BT11" s="1">
         <v>11.094953</v>
       </c>
       <c r="BU11" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="BV11" s="1">
-        <v>-705.600000</v>
+        <v>-705.6</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>39953.052640</v>
+        <v>39953.052640000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>11.098070</v>
+        <v>11.09807</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1478.410000</v>
+        <v>1478.41</v>
       </c>
       <c r="CA11" s="1">
-        <v>-924.243000</v>
+        <v>-924.24300000000005</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>39964.893634</v>
@@ -3034,60 +3450,60 @@
         <v>11.101359</v>
       </c>
       <c r="CE11" s="1">
-        <v>1839.330000</v>
+        <v>1839.33</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1443.100000</v>
+        <v>-1443.1</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>39791.860790</v>
+        <v>39791.860789999999</v>
       </c>
       <c r="B12" s="1">
         <v>11.053295</v>
       </c>
       <c r="C12" s="1">
-        <v>904.921000</v>
+        <v>904.92100000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-189.359000</v>
+        <v>-189.35900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>39802.247544</v>
+        <v>39802.247543999998</v>
       </c>
       <c r="G12" s="1">
-        <v>11.056180</v>
+        <v>11.056179999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>921.913000</v>
+        <v>921.91300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-161.336000</v>
+        <v>-161.33600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>39812.726985</v>
+        <v>39812.726985000001</v>
       </c>
       <c r="L12" s="1">
         <v>11.059091</v>
       </c>
       <c r="M12" s="1">
-        <v>944.562000</v>
+        <v>944.56200000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.916000</v>
+        <v>-116.916</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>39823.177227</v>
@@ -3096,240 +3512,240 @@
         <v>11.061994</v>
       </c>
       <c r="R12" s="1">
-        <v>951.507000</v>
+        <v>951.50699999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.058000</v>
+        <v>-102.05800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>39833.976093</v>
+        <v>39833.976092999997</v>
       </c>
       <c r="V12" s="1">
-        <v>11.064993</v>
+        <v>11.064992999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>958.874000</v>
+        <v>958.87400000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.185900</v>
+        <v>-88.185900000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>39844.450112</v>
+        <v>39844.450111999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>11.067903</v>
+        <v>11.067902999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.904000</v>
+        <v>966.904</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.139100</v>
+        <v>-77.139099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>39855.295167</v>
+        <v>39855.295166999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>11.070915</v>
+        <v>11.070914999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.827000</v>
+        <v>971.827</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.012200</v>
+        <v>-75.012200000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>39865.793460</v>
+        <v>39865.793460000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.073832</v>
+        <v>11.073831999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.476000</v>
+        <v>979.476</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.769300</v>
+        <v>-79.769300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>39875.867234</v>
+        <v>39875.867233999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.076630</v>
+        <v>11.07663</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.752000</v>
+        <v>987.75199999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.397900</v>
+        <v>-91.397900000000007</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>39886.532184</v>
+        <v>39886.532184000003</v>
       </c>
       <c r="AU12" s="1">
         <v>11.079592</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.610000</v>
+        <v>997.61</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.062000</v>
+        <v>-109.062</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>39897.554282</v>
+        <v>39897.554281999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>11.082654</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.860000</v>
+        <v>1005.86</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.757000</v>
+        <v>-124.75700000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>39908.643835</v>
+        <v>39908.643835000003</v>
       </c>
       <c r="BE12" s="1">
         <v>11.085734</v>
       </c>
       <c r="BF12" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.119000</v>
+        <v>-197.119</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>39919.488861</v>
+        <v>39919.488860999998</v>
       </c>
       <c r="BJ12" s="1">
         <v>11.088747</v>
       </c>
       <c r="BK12" s="1">
-        <v>1110.680000</v>
+        <v>1110.68</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.006000</v>
+        <v>-315.00599999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>39931.382925</v>
+        <v>39931.382924999998</v>
       </c>
       <c r="BO12" s="1">
         <v>11.092051</v>
       </c>
       <c r="BP12" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.261000</v>
+        <v>-501.26100000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>39942.264158</v>
+        <v>39942.264157999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.095073</v>
+        <v>11.095072999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1341.390000</v>
+        <v>1341.39</v>
       </c>
       <c r="BV12" s="1">
-        <v>-705.645000</v>
+        <v>-705.64499999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>39953.487135</v>
+        <v>39953.487135000003</v>
       </c>
       <c r="BY12" s="1">
         <v>11.098191</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1478.370000</v>
+        <v>1478.37</v>
       </c>
       <c r="CA12" s="1">
-        <v>-924.292000</v>
+        <v>-924.29200000000003</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>39965.411952</v>
+        <v>39965.411952000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.101503</v>
+        <v>11.101502999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1838.370000</v>
+        <v>1838.37</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1442.840000</v>
+        <v>-1442.84</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>39792.202070</v>
+        <v>39792.202069999999</v>
       </c>
       <c r="B13" s="1">
-        <v>11.053389</v>
+        <v>11.053388999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>905.253000</v>
+        <v>905.25300000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-189.334000</v>
+        <v>-189.334</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>39802.592231</v>
+        <v>39802.592231000002</v>
       </c>
       <c r="G13" s="1">
         <v>11.056276</v>
       </c>
       <c r="H13" s="1">
-        <v>921.697000</v>
+        <v>921.697</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.380000</v>
+        <v>-161.38</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>39813.069721</v>
@@ -3338,677 +3754,677 @@
         <v>11.059186</v>
       </c>
       <c r="M13" s="1">
-        <v>944.361000</v>
+        <v>944.36099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.920000</v>
+        <v>-116.92</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>39823.875564</v>
+        <v>39823.875564000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.062188</v>
+        <v>11.062188000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>951.543000</v>
+        <v>951.54300000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>39834.335694</v>
+        <v>39834.335694000001</v>
       </c>
       <c r="V13" s="1">
-        <v>11.065093</v>
+        <v>11.065092999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>958.855000</v>
+        <v>958.85500000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.114700</v>
+        <v>-88.114699999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>39844.797807</v>
+        <v>39844.797807000003</v>
       </c>
       <c r="AA13" s="1">
         <v>11.067999</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.884000</v>
+        <v>966.88400000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.109600</v>
+        <v>-77.1096</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>39855.635921</v>
+        <v>39855.635921000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>11.071010</v>
+        <v>11.071009999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.838000</v>
+        <v>971.83799999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.016700</v>
+        <v>-75.0167</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>39866.142174</v>
+        <v>39866.142174000001</v>
       </c>
       <c r="AK13" s="1">
         <v>11.073928</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.478000</v>
+        <v>979.47799999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.793000</v>
+        <v>-79.793000000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>39876.536310</v>
+        <v>39876.536310000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>11.076816</v>
+        <v>11.076816000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.728000</v>
+        <v>987.72799999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.384700</v>
+        <v>-91.384699999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>39887.200791</v>
+        <v>39887.200791000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.079778</v>
+        <v>11.079777999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.611000</v>
+        <v>997.61099999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.067000</v>
+        <v>-109.06699999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>39897.977897</v>
+        <v>39897.977896999997</v>
       </c>
       <c r="AZ13" s="1">
         <v>11.082772</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.850000</v>
+        <v>1005.85</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.756000</v>
+        <v>-124.756</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>39909.006412</v>
+        <v>39909.006412000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>11.085835</v>
+        <v>11.085834999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1044.280000</v>
+        <v>1044.28</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.136000</v>
+        <v>-197.136</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>39919.878249</v>
+        <v>39919.878249000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>11.088855</v>
+        <v>11.088855000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1110.720000</v>
+        <v>1110.72</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.003000</v>
+        <v>-315.00299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>39931.780221</v>
+        <v>39931.780221000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>11.092161</v>
+        <v>11.092161000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.287000</v>
+        <v>-501.28699999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>39942.692738</v>
+        <v>39942.692737999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>11.095192</v>
+        <v>11.095192000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1341.330000</v>
+        <v>1341.33</v>
       </c>
       <c r="BV13" s="1">
-        <v>-705.652000</v>
+        <v>-705.65200000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>39953.911741</v>
+        <v>39953.911741000004</v>
       </c>
       <c r="BY13" s="1">
         <v>11.098309</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1478.410000</v>
+        <v>1478.41</v>
       </c>
       <c r="CA13" s="1">
-        <v>-924.247000</v>
+        <v>-924.24699999999996</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>39965.930303</v>
+        <v>39965.930303000001</v>
       </c>
       <c r="CD13" s="1">
         <v>11.101647</v>
       </c>
       <c r="CE13" s="1">
-        <v>1837.780000</v>
+        <v>1837.78</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1444.140000</v>
+        <v>-1444.14</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>39792.545276</v>
+        <v>39792.545275999997</v>
       </c>
       <c r="B14" s="1">
         <v>11.053485</v>
       </c>
       <c r="C14" s="1">
-        <v>905.188000</v>
+        <v>905.18799999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-189.328000</v>
+        <v>-189.328</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>39803.281174</v>
+        <v>39803.281174000003</v>
       </c>
       <c r="G14" s="1">
         <v>11.056467</v>
       </c>
       <c r="H14" s="1">
-        <v>921.813000</v>
+        <v>921.81299999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-161.327000</v>
+        <v>-161.327</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>39813.759160</v>
+        <v>39813.759160000001</v>
       </c>
       <c r="L14" s="1">
-        <v>11.059378</v>
+        <v>11.059378000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>944.375000</v>
+        <v>944.375</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.923000</v>
+        <v>-116.923</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>39824.222762</v>
+        <v>39824.222761999998</v>
       </c>
       <c r="Q14" s="1">
         <v>11.062284</v>
       </c>
       <c r="R14" s="1">
-        <v>951.552000</v>
+        <v>951.55200000000002</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.112000</v>
+        <v>-102.11199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>39834.682789</v>
+        <v>39834.682788999999</v>
       </c>
       <c r="V14" s="1">
-        <v>11.065190</v>
+        <v>11.065189999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>958.837000</v>
+        <v>958.83699999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.085700</v>
+        <v>-88.085700000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>39845.148488</v>
+        <v>39845.148487999999</v>
       </c>
       <c r="AA14" s="1">
         <v>11.068097</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.920000</v>
+        <v>966.92</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.114800</v>
+        <v>-77.114800000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>39856.288161</v>
+        <v>39856.288160999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.071191</v>
+        <v>11.071191000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.822000</v>
+        <v>971.822</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.958700</v>
+        <v>-74.958699999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>39866.792912</v>
+        <v>39866.792911999997</v>
       </c>
       <c r="AK14" s="1">
         <v>11.074109</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.453000</v>
+        <v>979.45299999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.765600</v>
+        <v>-79.765600000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>39876.950966</v>
+        <v>39876.950965999997</v>
       </c>
       <c r="AP14" s="1">
         <v>11.076931</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.767000</v>
+        <v>987.76700000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.368700</v>
+        <v>-91.368700000000004</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>39887.624374</v>
+        <v>39887.624373999999</v>
       </c>
       <c r="AU14" s="1">
         <v>11.079896</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.598000</v>
+        <v>997.59799999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.050000</v>
+        <v>-109.05</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>39898.360281</v>
+        <v>39898.360281000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11.082878</v>
+        <v>11.082877999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.860000</v>
+        <v>1005.86</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.744000</v>
+        <v>-124.744</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>39909.366506</v>
+        <v>39909.366505999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.085935</v>
+        <v>11.085934999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.127000</v>
+        <v>-197.12700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>39920.254683</v>
+        <v>39920.254682999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.088960</v>
+        <v>11.08896</v>
       </c>
       <c r="BK14" s="1">
-        <v>1110.690000</v>
+        <v>1110.69</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.025000</v>
+        <v>-315.02499999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>39932.215211</v>
+        <v>39932.215211000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.092282</v>
+        <v>11.092282000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1219.020000</v>
+        <v>1219.02</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-501.285000</v>
+        <v>-501.28500000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>39943.107357</v>
+        <v>39943.107357000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>11.095308</v>
+        <v>11.095307999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="BV14" s="1">
-        <v>-705.682000</v>
+        <v>-705.68200000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>39954.330334</v>
+        <v>39954.330333999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.098425</v>
+        <v>11.098425000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1478.270000</v>
+        <v>1478.27</v>
       </c>
       <c r="CA14" s="1">
-        <v>-924.299000</v>
+        <v>-924.29899999999998</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>39966.445647</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.101790</v>
+        <v>11.101789999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1837.560000</v>
+        <v>1837.56</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1443.410000</v>
+        <v>-1443.41</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>39793.227267</v>
+        <v>39793.227267000002</v>
       </c>
       <c r="B15" s="1">
-        <v>11.053674</v>
+        <v>11.053674000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>905.214000</v>
+        <v>905.21400000000006</v>
       </c>
       <c r="D15" s="1">
-        <v>-189.388000</v>
+        <v>-189.38800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>39803.626426</v>
+        <v>39803.626426000003</v>
       </c>
       <c r="G15" s="1">
-        <v>11.056563</v>
+        <v>11.056563000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>921.609000</v>
+        <v>921.60900000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-160.989000</v>
+        <v>-160.989</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>39814.108871</v>
+        <v>39814.108870999997</v>
       </c>
       <c r="L15" s="1">
-        <v>11.059475</v>
+        <v>11.059475000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>944.262000</v>
+        <v>944.26199999999994</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.013000</v>
+        <v>-117.01300000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>39824.569962</v>
+        <v>39824.569962000001</v>
       </c>
       <c r="Q15" s="1">
         <v>11.062381</v>
       </c>
       <c r="R15" s="1">
-        <v>951.544000</v>
+        <v>951.54399999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.120000</v>
+        <v>-102.12</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>39835.335660</v>
+        <v>39835.335659999997</v>
       </c>
       <c r="V15" s="1">
-        <v>11.065371</v>
+        <v>11.065371000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>958.882000</v>
+        <v>958.88199999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.142600</v>
+        <v>-88.142600000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>39845.801247</v>
+        <v>39845.801247000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.068278</v>
+        <v>11.068277999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.881000</v>
+        <v>966.88099999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.116900</v>
+        <v>-77.116900000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>39856.665121</v>
+        <v>39856.665120999998</v>
       </c>
       <c r="AF15" s="1">
         <v>11.071296</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.818000</v>
+        <v>971.81799999999998</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.020500</v>
+        <v>-75.020499999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>39867.186722</v>
+        <v>39867.186721999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>11.074219</v>
+        <v>11.074218999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.453000</v>
+        <v>979.45299999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.774500</v>
+        <v>-79.774500000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>39877.337380</v>
+        <v>39877.337379999997</v>
       </c>
       <c r="AP15" s="1">
         <v>11.077038</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.742000</v>
+        <v>987.74199999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.391000</v>
+        <v>-91.391000000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>39887.985499</v>
+        <v>39887.985499000002</v>
       </c>
       <c r="AU15" s="1">
         <v>11.079996</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.619000</v>
+        <v>997.61900000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.053000</v>
+        <v>-109.053</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>39898.718888</v>
+        <v>39898.718888000003</v>
       </c>
       <c r="AZ15" s="1">
         <v>11.082977</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.759000</v>
+        <v>-124.759</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>39909.792713</v>
+        <v>39909.792713000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>11.086054</v>
+        <v>11.086054000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.170000</v>
+        <v>-197.17</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>39920.684219</v>
+        <v>39920.684219000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.089079</v>
       </c>
       <c r="BK15" s="1">
-        <v>1110.730000</v>
+        <v>1110.73</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.049000</v>
+        <v>-315.04899999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>39932.596672</v>
@@ -4017,28 +4433,28 @@
         <v>11.092388</v>
       </c>
       <c r="BP15" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.324000</v>
+        <v>-501.32400000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>39943.534412</v>
+        <v>39943.534412000001</v>
       </c>
       <c r="BT15" s="1">
         <v>11.095426</v>
       </c>
       <c r="BU15" s="1">
-        <v>1341.260000</v>
+        <v>1341.26</v>
       </c>
       <c r="BV15" s="1">
-        <v>-705.640000</v>
+        <v>-705.64</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>39954.758383</v>
@@ -4047,180 +4463,180 @@
         <v>11.098544</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1478.400000</v>
+        <v>1478.4</v>
       </c>
       <c r="CA15" s="1">
-        <v>-924.394000</v>
+        <v>-924.39400000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>39967.001631</v>
+        <v>39967.001630999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.101945</v>
+        <v>11.101945000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1838.350000</v>
+        <v>1838.35</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1442.580000</v>
+        <v>-1442.58</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>39793.569507</v>
       </c>
       <c r="B16" s="1">
-        <v>11.053769</v>
+        <v>11.053769000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>905.208000</v>
+        <v>905.20799999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-189.256000</v>
+        <v>-189.256</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>39803.969622</v>
+        <v>39803.969621999997</v>
       </c>
       <c r="G16" s="1">
-        <v>11.056658</v>
+        <v>11.056658000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>921.724000</v>
+        <v>921.72400000000005</v>
       </c>
       <c r="I16" s="1">
-        <v>-161.430000</v>
+        <v>-161.43</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>39814.457033</v>
+        <v>39814.457032999999</v>
       </c>
       <c r="L16" s="1">
         <v>11.059571</v>
       </c>
       <c r="M16" s="1">
-        <v>944.007000</v>
+        <v>944.00699999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.842000</v>
+        <v>-116.842</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>39825.223230</v>
+        <v>39825.223230000003</v>
       </c>
       <c r="Q16" s="1">
         <v>11.062562</v>
       </c>
       <c r="R16" s="1">
-        <v>951.512000</v>
+        <v>951.51199999999994</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.081000</v>
+        <v>-102.081</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>39835.711100</v>
+        <v>39835.7111</v>
       </c>
       <c r="V16" s="1">
-        <v>11.065475</v>
+        <v>11.065474999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>958.795000</v>
+        <v>958.79499999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.106900</v>
+        <v>-88.106899999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>39846.191566</v>
+        <v>39846.191566000001</v>
       </c>
       <c r="AA16" s="1">
         <v>11.068387</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.902000</v>
+        <v>966.90200000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.160100</v>
+        <v>-77.1601</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>39857.008816</v>
+        <v>39857.008816000001</v>
       </c>
       <c r="AF16" s="1">
         <v>11.071391</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.833000</v>
+        <v>971.83299999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.930300</v>
+        <v>-74.930300000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>39867.535905</v>
+        <v>39867.535904999997</v>
       </c>
       <c r="AK16" s="1">
         <v>11.074316</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.441000</v>
+        <v>979.44100000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.776500</v>
+        <v>-79.776499999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>39877.700452</v>
+        <v>39877.700451999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>11.077139</v>
+        <v>11.077139000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.727000</v>
+        <v>987.72699999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.375500</v>
+        <v>-91.375500000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>39888.350517</v>
+        <v>39888.350516999999</v>
       </c>
       <c r="AU16" s="1">
         <v>11.080097</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.624000</v>
+        <v>997.62400000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.046000</v>
+        <v>-109.04600000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>39899.142472</v>
@@ -4229,363 +4645,363 @@
         <v>11.083095</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.850000</v>
+        <v>1005.85</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.746000</v>
+        <v>-124.746</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>39910.090665</v>
+        <v>39910.090665000003</v>
       </c>
       <c r="BE16" s="1">
         <v>11.086136</v>
       </c>
       <c r="BF16" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.158000</v>
+        <v>-197.15799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>39921.003642</v>
+        <v>39921.003642000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>11.089168</v>
+        <v>11.089168000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1110.670000</v>
+        <v>1110.67</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.015000</v>
+        <v>-315.01499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>39933.018732</v>
+        <v>39933.018731999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.092505</v>
+        <v>11.092504999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.297000</v>
+        <v>-501.29700000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>39943.960972</v>
+        <v>39943.960972000001</v>
       </c>
       <c r="BT16" s="1">
         <v>11.095545</v>
       </c>
       <c r="BU16" s="1">
-        <v>1341.310000</v>
+        <v>1341.31</v>
       </c>
       <c r="BV16" s="1">
-        <v>-705.749000</v>
+        <v>-705.74900000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>39955.175060</v>
+        <v>39955.175060000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>11.098660</v>
+        <v>11.098660000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1478.340000</v>
+        <v>1478.34</v>
       </c>
       <c r="CA16" s="1">
-        <v>-924.312000</v>
+        <v>-924.31200000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>39967.529400</v>
+        <v>39967.529399999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.102092</v>
+        <v>11.102092000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1837.880000</v>
+        <v>1837.88</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1443.800000</v>
+        <v>-1443.8</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>39793.910754</v>
+        <v>39793.910753999997</v>
       </c>
       <c r="B17" s="1">
-        <v>11.053864</v>
+        <v>11.053864000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>905.504000</v>
+        <v>905.50400000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-189.156000</v>
+        <v>-189.15600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>39804.631316</v>
+        <v>39804.631315999999</v>
       </c>
       <c r="G17" s="1">
         <v>11.056842</v>
       </c>
       <c r="H17" s="1">
-        <v>921.683000</v>
+        <v>921.68299999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.901000</v>
+        <v>-161.90100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>39815.108280</v>
+        <v>39815.10828</v>
       </c>
       <c r="L17" s="1">
         <v>11.059752</v>
       </c>
       <c r="M17" s="1">
-        <v>944.377000</v>
+        <v>944.37699999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.004000</v>
+        <v>-117.004</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>39825.627432</v>
+        <v>39825.627432000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.062674</v>
+        <v>11.062673999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>951.500000</v>
+        <v>951.5</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.064000</v>
+        <v>-102.06399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>39836.053836</v>
+        <v>39836.053835999999</v>
       </c>
       <c r="V17" s="1">
         <v>11.065571</v>
       </c>
       <c r="W17" s="1">
-        <v>958.914000</v>
+        <v>958.91399999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.156900</v>
+        <v>-88.156899999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>39846.539758</v>
+        <v>39846.539757999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>11.068483</v>
+        <v>11.068483000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.876000</v>
+        <v>966.87599999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.031300</v>
+        <v>-77.031300000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>39857.353039</v>
+        <v>39857.353039000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.071487</v>
+        <v>11.071486999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.826000</v>
+        <v>971.82600000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.987900</v>
+        <v>-74.987899999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>39867.882647</v>
+        <v>39867.882646999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.074412</v>
+        <v>11.074412000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.498000</v>
+        <v>979.49800000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.779100</v>
+        <v>-79.7791</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>39878.119043</v>
+        <v>39878.119042999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>11.077255</v>
+        <v>11.077254999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.734000</v>
+        <v>987.73400000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.388700</v>
+        <v>-91.3887</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>39888.857925</v>
+        <v>39888.857924999997</v>
       </c>
       <c r="AU17" s="1">
         <v>11.080238</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.610000</v>
+        <v>997.61</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.043000</v>
+        <v>-109.04300000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>39899.437095</v>
+        <v>39899.437095000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>11.083177</v>
+        <v>11.083176999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.731000</v>
+        <v>-124.73099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>39910.452249</v>
+        <v>39910.452249000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.086237</v>
+        <v>11.086237000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.138000</v>
+        <v>-197.13800000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>39921.387546</v>
+        <v>39921.387545999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.089274</v>
       </c>
       <c r="BK17" s="1">
-        <v>1110.700000</v>
+        <v>1110.7</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.034000</v>
+        <v>-315.03399999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>39933.414079</v>
+        <v>39933.414079000002</v>
       </c>
       <c r="BO17" s="1">
         <v>11.092615</v>
       </c>
       <c r="BP17" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.332000</v>
+        <v>-501.33199999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>39944.549724</v>
+        <v>39944.549723999997</v>
       </c>
       <c r="BT17" s="1">
         <v>11.095708</v>
       </c>
       <c r="BU17" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="BV17" s="1">
-        <v>-705.668000</v>
+        <v>-705.66800000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>39955.622947</v>
+        <v>39955.622947000003</v>
       </c>
       <c r="BY17" s="1">
         <v>11.098784</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1478.320000</v>
+        <v>1478.32</v>
       </c>
       <c r="CA17" s="1">
-        <v>-924.300000</v>
+        <v>-924.3</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>39968.046204</v>
+        <v>39968.046203999998</v>
       </c>
       <c r="CD17" s="1">
         <v>11.102235</v>
       </c>
       <c r="CE17" s="1">
-        <v>1839.360000</v>
+        <v>1839.36</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1444.060000</v>
+        <v>-1444.06</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>39794.562994</v>
       </c>
@@ -4593,118 +5009,118 @@
         <v>11.054045</v>
       </c>
       <c r="C18" s="1">
-        <v>905.376000</v>
+        <v>905.37599999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-189.320000</v>
+        <v>-189.32</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>39805.004773</v>
+        <v>39805.004773000001</v>
       </c>
       <c r="G18" s="1">
         <v>11.056946</v>
       </c>
       <c r="H18" s="1">
-        <v>921.758000</v>
+        <v>921.75800000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-161.285000</v>
+        <v>-161.285</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>39815.488710</v>
+        <v>39815.488709999998</v>
       </c>
       <c r="L18" s="1">
         <v>11.059858</v>
       </c>
       <c r="M18" s="1">
-        <v>944.547000</v>
+        <v>944.54700000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.965000</v>
+        <v>-116.965</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>39825.965736</v>
+        <v>39825.965735999998</v>
       </c>
       <c r="Q18" s="1">
         <v>11.062768</v>
       </c>
       <c r="R18" s="1">
-        <v>951.507000</v>
+        <v>951.50699999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>39836.398058</v>
+        <v>39836.398057999999</v>
       </c>
       <c r="V18" s="1">
         <v>11.065666</v>
       </c>
       <c r="W18" s="1">
-        <v>958.876000</v>
+        <v>958.87599999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.135800</v>
+        <v>-88.135800000000003</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>39846.890428</v>
+        <v>39846.890427999999</v>
       </c>
       <c r="AA18" s="1">
         <v>11.068581</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.869000</v>
+        <v>966.86900000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.239100</v>
+        <v>-77.239099999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>39857.767694</v>
+        <v>39857.767694000002</v>
       </c>
       <c r="AF18" s="1">
         <v>11.071602</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.826000</v>
+        <v>971.82600000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.936600</v>
+        <v>-74.936599999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>39868.298257</v>
+        <v>39868.298257000002</v>
       </c>
       <c r="AK18" s="1">
         <v>11.074527</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.493000</v>
+        <v>979.49300000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.767300</v>
+        <v>-79.767300000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>39878.419618</v>
@@ -4713,43 +5129,43 @@
         <v>11.077339</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.733000</v>
+        <v>987.73299999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.394400</v>
+        <v>-91.394400000000005</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>39889.079142</v>
+        <v>39889.079142000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>11.080300</v>
+        <v>11.080299999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.603000</v>
+        <v>997.60299999999995</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.043000</v>
+        <v>-109.04300000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>39899.794716</v>
+        <v>39899.794715999997</v>
       </c>
       <c r="AZ18" s="1">
         <v>11.083276</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.860000</v>
+        <v>1005.86</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.764000</v>
+        <v>-124.764</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>39910.814328</v>
@@ -4758,43 +5174,43 @@
         <v>11.086337</v>
       </c>
       <c r="BF18" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.126000</v>
+        <v>-197.126</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>39921.774921</v>
+        <v>39921.774920999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>11.089382</v>
+        <v>11.089382000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1110.680000</v>
+        <v>1110.68</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.039000</v>
+        <v>-315.03899999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>39933.846057</v>
+        <v>39933.846057000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.092735</v>
+        <v>11.092734999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1219.010000</v>
+        <v>1219.01</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.299000</v>
+        <v>-501.29899999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>39945.234202</v>
@@ -4803,135 +5219,135 @@
         <v>11.095898</v>
       </c>
       <c r="BU18" s="1">
-        <v>1341.240000</v>
+        <v>1341.24</v>
       </c>
       <c r="BV18" s="1">
-        <v>-705.623000</v>
+        <v>-705.62300000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>39956.043020</v>
+        <v>39956.043019999997</v>
       </c>
       <c r="BY18" s="1">
         <v>11.098901</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1478.260000</v>
+        <v>1478.26</v>
       </c>
       <c r="CA18" s="1">
-        <v>-924.304000</v>
+        <v>-924.30399999999997</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>39968.563564</v>
+        <v>39968.563563999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.102379</v>
+        <v>11.102379000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1839.090000</v>
+        <v>1839.09</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1442.780000</v>
+        <v>-1442.78</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>39794.936978</v>
+        <v>39794.936977999998</v>
       </c>
       <c r="B19" s="1">
-        <v>11.054149</v>
+        <v>11.054149000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>905.311000</v>
+        <v>905.31100000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-189.358000</v>
+        <v>-189.358</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>39805.351476</v>
+        <v>39805.351476000003</v>
       </c>
       <c r="G19" s="1">
-        <v>11.057042</v>
+        <v>11.057041999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>921.636000</v>
+        <v>921.63599999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.248000</v>
+        <v>-161.24799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>39815.834617</v>
       </c>
       <c r="L19" s="1">
-        <v>11.059954</v>
+        <v>11.059953999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>944.337000</v>
+        <v>944.33699999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.899000</v>
+        <v>-116.899</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>39826.315879</v>
+        <v>39826.315879000002</v>
       </c>
       <c r="Q19" s="1">
         <v>11.062866</v>
       </c>
       <c r="R19" s="1">
-        <v>951.528000</v>
+        <v>951.52800000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.096000</v>
+        <v>-102.096</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>39836.815195</v>
+        <v>39836.815195000003</v>
       </c>
       <c r="V19" s="1">
         <v>11.065782</v>
       </c>
       <c r="W19" s="1">
-        <v>958.830000</v>
+        <v>958.83</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.114600</v>
+        <v>-88.114599999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>39847.304588</v>
+        <v>39847.304587999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.068696</v>
+        <v>11.068695999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.787000</v>
+        <v>966.78700000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.158500</v>
+        <v>-77.158500000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>39858.065789</v>
@@ -4940,73 +5356,73 @@
         <v>11.071685</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.785000</v>
+        <v>971.78499999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.901100</v>
+        <v>-74.9011</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>39868.587425</v>
+        <v>39868.587424999998</v>
       </c>
       <c r="AK19" s="1">
         <v>11.074608</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.500000</v>
+        <v>979.5</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.792700</v>
+        <v>-79.792699999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>39878.780210</v>
+        <v>39878.780209999997</v>
       </c>
       <c r="AP19" s="1">
         <v>11.077439</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.751000</v>
+        <v>987.75099999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.388900</v>
+        <v>-91.388900000000007</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>39889.444198</v>
+        <v>39889.444197999997</v>
       </c>
       <c r="AU19" s="1">
         <v>11.080401</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.593000</v>
+        <v>997.59299999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.032000</v>
+        <v>-109.032</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>39900.149350</v>
+        <v>39900.14935</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.083375</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.759000</v>
+        <v>-124.759</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>39911.533528</v>
@@ -5015,195 +5431,195 @@
         <v>11.086537</v>
       </c>
       <c r="BF19" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.117000</v>
+        <v>-197.11699999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>39922.524376</v>
+        <v>39922.524376000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.089590</v>
+        <v>11.089589999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1110.690000</v>
+        <v>1110.69</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.041000</v>
+        <v>-315.041</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>39934.234921</v>
+        <v>39934.234921000003</v>
       </c>
       <c r="BO19" s="1">
         <v>11.092843</v>
       </c>
       <c r="BP19" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.330000</v>
+        <v>-501.33</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>39945.664234</v>
+        <v>39945.664234000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.096018</v>
+        <v>11.096018000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1341.350000</v>
+        <v>1341.35</v>
       </c>
       <c r="BV19" s="1">
-        <v>-705.681000</v>
+        <v>-705.68100000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>39956.469083</v>
+        <v>39956.469083000004</v>
       </c>
       <c r="BY19" s="1">
         <v>11.099019</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1478.340000</v>
+        <v>1478.34</v>
       </c>
       <c r="CA19" s="1">
-        <v>-924.405000</v>
+        <v>-924.40499999999997</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>39969.388875</v>
+        <v>39969.388874999997</v>
       </c>
       <c r="CD19" s="1">
         <v>11.102608</v>
       </c>
       <c r="CE19" s="1">
-        <v>1839.790000</v>
+        <v>1839.79</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1443.970000</v>
+        <v>-1443.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>39795.280704</v>
+        <v>39795.280703999997</v>
       </c>
       <c r="B20" s="1">
         <v>11.054245</v>
       </c>
       <c r="C20" s="1">
-        <v>905.493000</v>
+        <v>905.49300000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-189.176000</v>
+        <v>-189.17599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>39805.693715</v>
+        <v>39805.693715000001</v>
       </c>
       <c r="G20" s="1">
-        <v>11.057137</v>
+        <v>11.057137000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>921.852000</v>
+        <v>921.85199999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-161.210000</v>
+        <v>-161.21</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>39816.251266</v>
+        <v>39816.251265999999</v>
       </c>
       <c r="L20" s="1">
-        <v>11.060070</v>
+        <v>11.06007</v>
       </c>
       <c r="M20" s="1">
-        <v>944.335000</v>
+        <v>944.33500000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.980000</v>
+        <v>-116.98</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>39826.741944</v>
+        <v>39826.741944000001</v>
       </c>
       <c r="Q20" s="1">
         <v>11.062984</v>
       </c>
       <c r="R20" s="1">
-        <v>951.550000</v>
+        <v>951.55</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.090000</v>
+        <v>-102.09</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>39837.095434</v>
+        <v>39837.095434000003</v>
       </c>
       <c r="V20" s="1">
-        <v>11.065860</v>
+        <v>11.065860000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>958.879000</v>
+        <v>958.87900000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.088100</v>
+        <v>-88.088099999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>39847.595778</v>
+        <v>39847.595778000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.068777</v>
+        <v>11.068777000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.815000</v>
+        <v>966.81500000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.116900</v>
+        <v>-77.116900000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>39858.409517</v>
       </c>
       <c r="AF20" s="1">
-        <v>11.071780</v>
+        <v>11.07178</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.794000</v>
+        <v>971.79399999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.918000</v>
+        <v>-74.918000000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>39868.927183</v>
@@ -5212,13 +5628,13 @@
         <v>11.074702</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.467000</v>
+        <v>979.46699999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.769700</v>
+        <v>-79.7697</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>39879.138819</v>
@@ -5227,150 +5643,150 @@
         <v>11.077539</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.722000</v>
+        <v>987.72199999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.410600</v>
+        <v>-91.410600000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>39890.171330</v>
+        <v>39890.171329999997</v>
       </c>
       <c r="AU20" s="1">
         <v>11.080603</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.613000</v>
+        <v>997.61300000000006</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.061000</v>
+        <v>-109.06100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>39900.877479</v>
+        <v>39900.877479000002</v>
       </c>
       <c r="AZ20" s="1">
         <v>11.083577</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.753000</v>
+        <v>-124.753</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>39911.896598</v>
+        <v>39911.896597999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>11.086638</v>
+        <v>11.086638000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.126000</v>
+        <v>-197.126</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>39922.928616</v>
+        <v>39922.928615999997</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.089702</v>
+        <v>11.089702000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1110.720000</v>
+        <v>1110.72</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.042000</v>
+        <v>-315.04199999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>39934.654040</v>
+        <v>39934.654040000001</v>
       </c>
       <c r="BO20" s="1">
         <v>11.092959</v>
       </c>
       <c r="BP20" s="1">
-        <v>1219.060000</v>
+        <v>1219.06</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.285000</v>
+        <v>-501.28500000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>39946.391368</v>
+        <v>39946.391367999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.096220</v>
+        <v>11.096220000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1341.360000</v>
+        <v>1341.36</v>
       </c>
       <c r="BV20" s="1">
-        <v>-705.677000</v>
+        <v>-705.67700000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>39957.226972</v>
+        <v>39957.226971999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.099230</v>
+        <v>11.09923</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1478.440000</v>
+        <v>1478.44</v>
       </c>
       <c r="CA20" s="1">
-        <v>-924.391000</v>
+        <v>-924.39099999999996</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>39969.622489</v>
+        <v>39969.622489000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>11.102673</v>
+        <v>11.102672999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1839.630000</v>
+        <v>1839.63</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1444.140000</v>
+        <v>-1444.14</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>39795.622448</v>
+        <v>39795.622448000002</v>
       </c>
       <c r="B21" s="1">
-        <v>11.054340</v>
+        <v>11.05434</v>
       </c>
       <c r="C21" s="1">
-        <v>905.266000</v>
+        <v>905.26599999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-189.390000</v>
+        <v>-189.39</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>39806.116338</v>
@@ -5379,28 +5795,28 @@
         <v>11.057255</v>
       </c>
       <c r="H21" s="1">
-        <v>921.909000</v>
+        <v>921.90899999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-161.079000</v>
+        <v>-161.07900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>39816.531333</v>
+        <v>39816.531332999999</v>
       </c>
       <c r="L21" s="1">
         <v>11.060148</v>
       </c>
       <c r="M21" s="1">
-        <v>944.227000</v>
+        <v>944.22699999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.849000</v>
+        <v>-116.849</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>39827.021687</v>
@@ -5409,43 +5825,43 @@
         <v>11.063062</v>
       </c>
       <c r="R21" s="1">
-        <v>951.537000</v>
+        <v>951.53700000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.120000</v>
+        <v>-102.12</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>39837.439161</v>
+        <v>39837.439161000002</v>
       </c>
       <c r="V21" s="1">
-        <v>11.065955</v>
+        <v>11.065955000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>958.890000</v>
+        <v>958.89</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.140300</v>
+        <v>-88.140299999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>39847.945915</v>
+        <v>39847.945914999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.068874</v>
+        <v>11.068873999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.790000</v>
+        <v>966.79</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.104800</v>
+        <v>-77.104799999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>39858.753245</v>
@@ -5454,360 +5870,360 @@
         <v>11.071876</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.808000</v>
+        <v>971.80799999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.942300</v>
+        <v>-74.942300000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>39869.285790</v>
+        <v>39869.285790000002</v>
       </c>
       <c r="AK21" s="1">
         <v>11.074802</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.485000</v>
+        <v>979.48500000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.809700</v>
+        <v>-79.809700000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>39879.859042</v>
+        <v>39879.859041999996</v>
       </c>
       <c r="AP21" s="1">
-        <v>11.077739</v>
+        <v>11.077738999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.741000</v>
+        <v>987.74099999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.374300</v>
+        <v>-91.374300000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>39890.569122</v>
+        <v>39890.569122000001</v>
       </c>
       <c r="AU21" s="1">
         <v>11.080714</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.599000</v>
+        <v>997.59900000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.051000</v>
+        <v>-109.051</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>39901.254437</v>
+        <v>39901.254437000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>11.083682</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.753000</v>
+        <v>-124.753</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>39912.258183</v>
+        <v>39912.258182999998</v>
       </c>
       <c r="BE21" s="1">
         <v>11.086738</v>
       </c>
       <c r="BF21" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.139000</v>
+        <v>-197.13900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>39923.301609</v>
+        <v>39923.301609000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>11.089806</v>
+        <v>11.089805999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1110.650000</v>
+        <v>1110.6500000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.061000</v>
+        <v>-315.06099999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>39935.357865</v>
+        <v>39935.357864999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.093155</v>
+        <v>11.093154999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.294000</v>
+        <v>-501.29399999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>39946.508956</v>
+        <v>39946.508955999998</v>
       </c>
       <c r="BT21" s="1">
         <v>11.096252</v>
       </c>
       <c r="BU21" s="1">
-        <v>1341.270000</v>
+        <v>1341.27</v>
       </c>
       <c r="BV21" s="1">
-        <v>-705.648000</v>
+        <v>-705.64800000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>39957.347003</v>
+        <v>39957.347003000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.099263</v>
+        <v>11.099263000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1478.430000</v>
+        <v>1478.43</v>
       </c>
       <c r="CA21" s="1">
-        <v>-924.346000</v>
+        <v>-924.346</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>39970.141305</v>
+        <v>39970.141304999997</v>
       </c>
       <c r="CD21" s="1">
         <v>11.102817</v>
       </c>
       <c r="CE21" s="1">
-        <v>1839.540000</v>
+        <v>1839.54</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1442.880000</v>
+        <v>-1442.88</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>39796.040081</v>
+        <v>39796.040080999999</v>
       </c>
       <c r="B22" s="1">
         <v>11.054456</v>
       </c>
       <c r="C22" s="1">
-        <v>905.592000</v>
+        <v>905.59199999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-189.300000</v>
+        <v>-189.3</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>39806.391122</v>
+        <v>39806.391122000001</v>
       </c>
       <c r="G22" s="1">
         <v>11.057331</v>
       </c>
       <c r="H22" s="1">
-        <v>922.070000</v>
+        <v>922.07</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.179000</v>
+        <v>-161.179</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>39816.874532</v>
+        <v>39816.874532000002</v>
       </c>
       <c r="L22" s="1">
         <v>11.060243</v>
       </c>
       <c r="M22" s="1">
-        <v>944.230000</v>
+        <v>944.23</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.963000</v>
+        <v>-116.96299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>39827.368390</v>
+        <v>39827.368390000003</v>
       </c>
       <c r="Q22" s="1">
         <v>11.063158</v>
       </c>
       <c r="R22" s="1">
-        <v>951.503000</v>
+        <v>951.50300000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.086000</v>
+        <v>-102.086</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>39837.779449</v>
+        <v>39837.779449000001</v>
       </c>
       <c r="V22" s="1">
-        <v>11.066050</v>
+        <v>11.066050000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>958.853000</v>
+        <v>958.85299999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.218600</v>
+        <v>-88.218599999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>39848.296123</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.068971</v>
+        <v>11.068970999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.834000</v>
+        <v>966.83399999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.167600</v>
+        <v>-77.167599999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>39859.440701</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.072067</v>
+        <v>11.072067000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.809000</v>
+        <v>971.80899999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.911300</v>
+        <v>-74.911299999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>39869.980686</v>
+        <v>39869.980686000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>11.074995</v>
+        <v>11.074994999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.481000</v>
+        <v>979.48099999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.782200</v>
+        <v>-79.782200000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>39880.221088</v>
+        <v>39880.221087999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>11.077839</v>
+        <v>11.077839000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.735000</v>
+        <v>987.73500000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.403000</v>
+        <v>-91.403000000000006</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>39890.934675</v>
+        <v>39890.934674999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.080815</v>
+        <v>11.080814999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.600000</v>
+        <v>997.6</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.044000</v>
+        <v>-109.044</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>39901.640852</v>
+        <v>39901.640851999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11.083789</v>
+        <v>11.083788999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.850000</v>
+        <v>1005.85</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.763000</v>
+        <v>-124.76300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>39912.945144</v>
+        <v>39912.945143999998</v>
       </c>
       <c r="BE22" s="1">
         <v>11.086929</v>
       </c>
       <c r="BF22" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.120000</v>
+        <v>-197.12</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>39924.008101</v>
+        <v>39924.008100999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.090002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1110.690000</v>
+        <v>1110.69</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.043000</v>
+        <v>-315.04300000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>39935.490565</v>
@@ -5816,120 +6232,120 @@
         <v>11.093192</v>
       </c>
       <c r="BP22" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.338000</v>
+        <v>-501.33800000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>39946.946392</v>
+        <v>39946.946391999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.096374</v>
+        <v>11.096374000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1341.340000</v>
+        <v>1341.34</v>
       </c>
       <c r="BV22" s="1">
-        <v>-705.696000</v>
+        <v>-705.69600000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>39957.786986</v>
+        <v>39957.786985999999</v>
       </c>
       <c r="BY22" s="1">
         <v>11.099385</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1478.310000</v>
+        <v>1478.31</v>
       </c>
       <c r="CA22" s="1">
-        <v>-924.309000</v>
+        <v>-924.30899999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>39970.658665</v>
+        <v>39970.658665000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.102961</v>
+        <v>11.102961000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1838.270000</v>
+        <v>1838.27</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1443.150000</v>
+        <v>-1443.15</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>39796.320358</v>
+        <v>39796.320357999997</v>
       </c>
       <c r="B23" s="1">
-        <v>11.054533</v>
+        <v>11.054532999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>905.456000</v>
+        <v>905.45600000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-189.384000</v>
+        <v>-189.38399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>39806.734818</v>
+        <v>39806.734817999997</v>
       </c>
       <c r="G23" s="1">
         <v>11.057426</v>
       </c>
       <c r="H23" s="1">
-        <v>921.873000</v>
+        <v>921.87300000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-161.570000</v>
+        <v>-161.57</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>39817.222257</v>
+        <v>39817.222257000001</v>
       </c>
       <c r="L23" s="1">
-        <v>11.060340</v>
+        <v>11.06034</v>
       </c>
       <c r="M23" s="1">
-        <v>944.160000</v>
+        <v>944.16</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.750000</v>
+        <v>-116.75</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>39827.718565</v>
+        <v>39827.718565000003</v>
       </c>
       <c r="Q23" s="1">
         <v>11.063255</v>
       </c>
       <c r="R23" s="1">
-        <v>951.499000</v>
+        <v>951.49900000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>39838.469351</v>
@@ -5938,210 +6354,210 @@
         <v>11.066241</v>
       </c>
       <c r="W23" s="1">
-        <v>958.892000</v>
+        <v>958.89200000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.138300</v>
+        <v>-88.138300000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>39848.991979</v>
+        <v>39848.991978999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>11.069164</v>
+        <v>11.069164000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.800000</v>
+        <v>966.8</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.126200</v>
+        <v>-77.126199999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>39859.785456</v>
+        <v>39859.785455999998</v>
       </c>
       <c r="AF23" s="1">
         <v>11.072163</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.808000</v>
+        <v>971.80799999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.896700</v>
+        <v>-74.896699999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>39870.337805</v>
+        <v>39870.337805000003</v>
       </c>
       <c r="AK23" s="1">
         <v>11.075094</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.500000</v>
+        <v>979.5</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.809300</v>
+        <v>-79.809299999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>39880.581681</v>
+        <v>39880.581681000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.077939</v>
+        <v>11.077939000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.744000</v>
+        <v>987.74400000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.387800</v>
+        <v>-91.387799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>39891.616178</v>
+        <v>39891.616177999997</v>
       </c>
       <c r="AU23" s="1">
         <v>11.081004</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.589000</v>
+        <v>997.58900000000006</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.037000</v>
+        <v>-109.03700000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>39902.330755</v>
+        <v>39902.330755000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.083981</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.748000</v>
+        <v>-124.748</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>39913.367734</v>
+        <v>39913.367733999999</v>
       </c>
       <c r="BE23" s="1">
         <v>11.087047</v>
       </c>
       <c r="BF23" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.146000</v>
+        <v>-197.14599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>39924.461297</v>
+        <v>39924.461297000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>11.090128</v>
       </c>
       <c r="BK23" s="1">
-        <v>1110.690000</v>
+        <v>1110.69</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.023000</v>
+        <v>-315.02300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>39935.899495</v>
+        <v>39935.899494999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.093305</v>
+        <v>11.093305000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.322000</v>
+        <v>-501.322</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>39947.375960</v>
+        <v>39947.375959999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.096493</v>
+        <v>11.096493000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1341.260000</v>
+        <v>1341.26</v>
       </c>
       <c r="BV23" s="1">
-        <v>-705.627000</v>
+        <v>-705.62699999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>39958.244267</v>
+        <v>39958.244267000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.099512</v>
+        <v>11.099512000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1478.320000</v>
+        <v>1478.32</v>
       </c>
       <c r="CA23" s="1">
-        <v>-924.235000</v>
+        <v>-924.23500000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>39971.177448</v>
+        <v>39971.177448000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.103105</v>
+        <v>11.103104999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1838.760000</v>
+        <v>1838.76</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1444.130000</v>
+        <v>-1444.13</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>39796.663054</v>
+        <v>39796.663053999997</v>
       </c>
       <c r="B24" s="1">
         <v>11.054629</v>
       </c>
       <c r="C24" s="1">
-        <v>905.412000</v>
+        <v>905.41200000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-189.207000</v>
+        <v>-189.20699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>39807.081521</v>
@@ -6150,118 +6566,118 @@
         <v>11.057523</v>
       </c>
       <c r="H24" s="1">
-        <v>921.449000</v>
+        <v>921.44899999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.110000</v>
+        <v>-161.11000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>39817.915174</v>
+        <v>39817.915174000002</v>
       </c>
       <c r="L24" s="1">
         <v>11.060532</v>
       </c>
       <c r="M24" s="1">
-        <v>944.206000</v>
+        <v>944.20600000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.781000</v>
+        <v>-116.78100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>39828.413496</v>
+        <v>39828.413496000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.063448</v>
+        <v>11.063447999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>951.550000</v>
+        <v>951.55</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.052000</v>
+        <v>-102.05200000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>39838.813080</v>
+        <v>39838.81308</v>
       </c>
       <c r="V24" s="1">
-        <v>11.066337</v>
+        <v>11.066337000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>958.854000</v>
+        <v>958.85400000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.114200</v>
+        <v>-88.114199999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>39849.341162</v>
+        <v>39849.341161999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>11.069261</v>
+        <v>11.069260999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.614000</v>
+        <v>966.61400000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.164900</v>
+        <v>-77.164900000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>39860.128189</v>
+        <v>39860.128189000003</v>
       </c>
       <c r="AF24" s="1">
         <v>11.072258</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.808000</v>
+        <v>971.80799999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.931100</v>
+        <v>-74.931100000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>39870.678074</v>
+        <v>39870.678074000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.075188</v>
+        <v>11.075188000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.479000</v>
+        <v>979.47900000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.786100</v>
+        <v>-79.786100000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>39881.249820</v>
+        <v>39881.249819999997</v>
       </c>
       <c r="AP24" s="1">
         <v>11.078125</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.726000</v>
+        <v>987.726</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.386700</v>
+        <v>-91.386700000000005</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>39892.060113</v>
@@ -6270,407 +6686,407 @@
         <v>11.081128</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.603000</v>
+        <v>997.60299999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.036000</v>
+        <v>-109.036</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>39902.717139</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.084088</v>
+        <v>11.084087999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.741000</v>
+        <v>-124.741</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>39913.731301</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.087148</v>
+        <v>11.087147999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1044.260000</v>
+        <v>1044.26</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.131000</v>
+        <v>-197.131</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>39924.876901</v>
+        <v>39924.876901000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.090244</v>
       </c>
       <c r="BK24" s="1">
-        <v>1110.670000</v>
+        <v>1110.67</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.034000</v>
+        <v>-315.03399999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>39936.295798</v>
+        <v>39936.295797999999</v>
       </c>
       <c r="BO24" s="1">
         <v>11.093415</v>
       </c>
       <c r="BP24" s="1">
-        <v>1219.040000</v>
+        <v>1219.04</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.312000</v>
+        <v>-501.31200000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>39947.805463</v>
+        <v>39947.805462999997</v>
       </c>
       <c r="BT24" s="1">
         <v>11.096613</v>
       </c>
       <c r="BU24" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="BV24" s="1">
-        <v>-705.656000</v>
+        <v>-705.65599999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>39958.691160</v>
+        <v>39958.691160000002</v>
       </c>
       <c r="BY24" s="1">
         <v>11.099636</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1478.290000</v>
+        <v>1478.29</v>
       </c>
       <c r="CA24" s="1">
-        <v>-924.368000</v>
+        <v>-924.36800000000005</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>39971.693784</v>
+        <v>39971.693784000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>11.103248</v>
+        <v>11.103248000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1838.240000</v>
+        <v>1838.24</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1444.160000</v>
+        <v>-1444.16</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>39797.001853</v>
+        <v>39797.001853000002</v>
       </c>
       <c r="B25" s="1">
-        <v>11.054723</v>
+        <v>11.054722999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>905.456000</v>
+        <v>905.45600000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-189.266000</v>
+        <v>-189.26599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>39807.768580</v>
+        <v>39807.768580000004</v>
       </c>
       <c r="G25" s="1">
         <v>11.057713</v>
       </c>
       <c r="H25" s="1">
-        <v>921.704000</v>
+        <v>921.70399999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-161.279000</v>
+        <v>-161.279</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>39818.262835</v>
+        <v>39818.262835000001</v>
       </c>
       <c r="L25" s="1">
         <v>11.060629</v>
       </c>
       <c r="M25" s="1">
-        <v>944.398000</v>
+        <v>944.39800000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.884000</v>
+        <v>-116.884</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>39828.764628</v>
+        <v>39828.764627999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.063546</v>
+        <v>11.063546000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>951.568000</v>
+        <v>951.56799999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.063000</v>
+        <v>-102.063</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>39839.153831</v>
+        <v>39839.153831000003</v>
       </c>
       <c r="V25" s="1">
-        <v>11.066432</v>
+        <v>11.066432000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>958.771000</v>
+        <v>958.77099999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.145200</v>
+        <v>-88.145200000000003</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>39849.691338</v>
+        <v>39849.691337999997</v>
       </c>
       <c r="AA25" s="1">
         <v>11.069359</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.752000</v>
+        <v>966.75199999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.186500</v>
+        <v>-77.186499999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>39860.779905</v>
+        <v>39860.779905000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>11.072439</v>
+        <v>11.072438999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.775000</v>
+        <v>971.77499999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.918600</v>
+        <v>-74.918599999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>39871.121484</v>
+        <v>39871.121484000003</v>
       </c>
       <c r="AK25" s="1">
         <v>11.075312</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.471000</v>
+        <v>979.471</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.788800</v>
+        <v>-79.788799999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>39881.692254</v>
+        <v>39881.692254000001</v>
       </c>
       <c r="AP25" s="1">
         <v>11.078248</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.712000</v>
+        <v>987.71199999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.385100</v>
+        <v>-91.385099999999994</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>39892.426144</v>
+        <v>39892.426143999997</v>
       </c>
       <c r="AU25" s="1">
         <v>11.081229</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.601000</v>
+        <v>997.601</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.053000</v>
+        <v>-109.053</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>39903.076243</v>
+        <v>39903.076243000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>11.084188</v>
+        <v>11.084187999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.830000</v>
+        <v>1005.83</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.763000</v>
+        <v>-124.76300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>39914.093379</v>
+        <v>39914.093378999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.087248</v>
+        <v>11.087248000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1044.250000</v>
+        <v>1044.25</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.108000</v>
+        <v>-197.108</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>39925.269733</v>
+        <v>39925.269733000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.090353</v>
       </c>
       <c r="BK25" s="1">
-        <v>1110.650000</v>
+        <v>1110.6500000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.035000</v>
+        <v>-315.03500000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>39936.717893</v>
+        <v>39936.717893000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.093533</v>
+        <v>11.093533000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1219.030000</v>
+        <v>1219.03</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.338000</v>
+        <v>-501.33800000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>39948.218134</v>
+        <v>39948.218134000002</v>
       </c>
       <c r="BT25" s="1">
         <v>11.096727</v>
       </c>
       <c r="BU25" s="1">
-        <v>1341.310000</v>
+        <v>1341.31</v>
       </c>
       <c r="BV25" s="1">
-        <v>-705.609000</v>
+        <v>-705.60900000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>39959.112767</v>
+        <v>39959.112766999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>11.099754</v>
+        <v>11.099754000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1478.400000</v>
+        <v>1478.4</v>
       </c>
       <c r="CA25" s="1">
-        <v>-924.397000</v>
+        <v>-924.39700000000005</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>39972.247355</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.103402</v>
+        <v>11.103402000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1837.950000</v>
+        <v>1837.95</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1443.220000</v>
+        <v>-1443.22</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>39797.689277</v>
+        <v>39797.689276999998</v>
       </c>
       <c r="B26" s="1">
         <v>11.054914</v>
       </c>
       <c r="C26" s="1">
-        <v>905.743000</v>
+        <v>905.74300000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-189.353000</v>
+        <v>-189.35300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>39808.114687</v>
+        <v>39808.114687000001</v>
       </c>
       <c r="G26" s="1">
-        <v>11.057810</v>
+        <v>11.05781</v>
       </c>
       <c r="H26" s="1">
-        <v>921.614000</v>
+        <v>921.61400000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-161.015000</v>
+        <v>-161.01499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>39818.609074</v>
@@ -6679,193 +7095,193 @@
         <v>11.060725</v>
       </c>
       <c r="M26" s="1">
-        <v>944.223000</v>
+        <v>944.22299999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.064000</v>
+        <v>-117.06399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>39829.114803</v>
+        <v>39829.114802999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.063643</v>
+        <v>11.063643000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>951.567000</v>
+        <v>951.56700000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.095000</v>
+        <v>-102.095</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>39839.815033</v>
+        <v>39839.815032999999</v>
       </c>
       <c r="V26" s="1">
-        <v>11.066615</v>
+        <v>11.066615000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>958.898000</v>
+        <v>958.89800000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.173600</v>
+        <v>-88.173599999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>39850.348536</v>
+        <v>39850.348535999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>11.069541</v>
+        <v>11.069540999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.633000</v>
+        <v>966.63300000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.090700</v>
+        <v>-77.090699999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>39861.157849</v>
+        <v>39861.157849000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.072544</v>
+        <v>11.072544000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.799000</v>
+        <v>971.79899999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.870000</v>
+        <v>-74.87</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>39871.393787</v>
+        <v>39871.393787000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>11.075387</v>
+        <v>11.075386999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.481000</v>
+        <v>979.48099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.782500</v>
+        <v>-79.782499999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>39882.052815</v>
+        <v>39882.052815000003</v>
       </c>
       <c r="AP26" s="1">
         <v>11.078348</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.732000</v>
+        <v>987.73199999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.395300</v>
+        <v>-91.395300000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>39892.788720</v>
+        <v>39892.788719999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>11.081330</v>
+        <v>11.081329999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.606000</v>
+        <v>997.60599999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.039000</v>
+        <v>-109.039</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>39903.433398</v>
+        <v>39903.433398000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>11.084287</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.840000</v>
+        <v>1005.84</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.741000</v>
+        <v>-124.741</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>39914.517494</v>
       </c>
       <c r="BE26" s="1">
-        <v>11.087366</v>
+        <v>11.087365999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1044.270000</v>
+        <v>1044.27</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.123000</v>
+        <v>-197.12299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>39925.975540</v>
+        <v>39925.975539999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>11.090549</v>
+        <v>11.090548999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1110.680000</v>
+        <v>1110.68</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.017000</v>
+        <v>-315.017</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>39937.115189</v>
+        <v>39937.115188999996</v>
       </c>
       <c r="BO26" s="1">
         <v>11.093643</v>
       </c>
       <c r="BP26" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.336000</v>
+        <v>-501.33600000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>39948.647174</v>
+        <v>39948.647173999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>11.096846</v>
+        <v>11.096845999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1341.260000</v>
+        <v>1341.26</v>
       </c>
       <c r="BV26" s="1">
-        <v>-705.721000</v>
+        <v>-705.721</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>39959.533895</v>
@@ -6874,30 +7290,31 @@
         <v>11.099871</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1478.330000</v>
+        <v>1478.33</v>
       </c>
       <c r="CA26" s="1">
-        <v>-924.339000</v>
+        <v>-924.33900000000006</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>39972.776054</v>
+        <v>39972.776054000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>11.103549</v>
+        <v>11.103548999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1838.550000</v>
+        <v>1838.55</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1444.310000</v>
+        <v>-1444.31</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>